--- a/chart_store/chart_store_settings.xlsx
+++ b/chart_store/chart_store_settings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="42">
   <si>
     <t>tradingsymbol</t>
   </si>
@@ -48,18 +48,12 @@
     <t>TVSMOTOR</t>
   </si>
   <si>
-    <t>PETRONET</t>
-  </si>
-  <si>
     <t>PAGEIND</t>
   </si>
   <si>
     <t>ONGC</t>
   </si>
   <si>
-    <t>MCX</t>
-  </si>
-  <si>
     <t>MARICO</t>
   </si>
   <si>
@@ -81,79 +75,73 @@
     <t>NTPC</t>
   </si>
   <si>
-    <t>NATIONALUM</t>
-  </si>
-  <si>
     <t>HDFCBANK</t>
   </si>
   <si>
     <t>HAVELLS</t>
   </si>
   <si>
+    <t>BHEL</t>
+  </si>
+  <si>
+    <t>BERGEPAINT</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>GAIL</t>
+  </si>
+  <si>
+    <t>FSL</t>
+  </si>
+  <si>
+    <t>AUROPHARMA</t>
+  </si>
+  <si>
+    <t>ASIANPAINT</t>
+  </si>
+  <si>
+    <t>AMBUJACEM</t>
+  </si>
+  <si>
+    <t>JUSTDIAL</t>
+  </si>
+  <si>
+    <t>JUBLFOOD</t>
+  </si>
+  <si>
+    <t>HINDUNILVR</t>
+  </si>
+  <si>
+    <t>DIVISLAB</t>
+  </si>
+  <si>
+    <t>PVR</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>HCLTECH</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>NIFTY 50</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>DCBBANK</t>
   </si>
   <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>BHEL</t>
-  </si>
-  <si>
-    <t>BERGEPAINT</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>GAIL</t>
-  </si>
-  <si>
-    <t>FSL</t>
-  </si>
-  <si>
-    <t>AUROPHARMA</t>
-  </si>
-  <si>
-    <t>ASIANPAINT</t>
-  </si>
-  <si>
-    <t>AMBUJACEM</t>
-  </si>
-  <si>
-    <t>AMARAJABAT</t>
-  </si>
-  <si>
-    <t>JUSTDIAL</t>
-  </si>
-  <si>
-    <t>JUBLFOOD</t>
-  </si>
-  <si>
-    <t>JSWSTEEL</t>
-  </si>
-  <si>
-    <t>HINDUNILVR</t>
-  </si>
-  <si>
-    <t>DIVISLAB</t>
-  </si>
-  <si>
-    <t>PVR</t>
-  </si>
-  <si>
-    <t>POWERGRID</t>
-  </si>
-  <si>
-    <t>HCLTECH</t>
-  </si>
-  <si>
-    <t>ITC</t>
-  </si>
-  <si>
-    <t>INDUSINDBK</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
+    <t>NIFTY MIDCAP 50</t>
   </si>
 </sst>
 </file>
@@ -215,14 +203,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -230,11 +220,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,13 +525,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C414"/>
+  <dimension ref="A1:C442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -549,1575 +548,1619 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="C43" s="3"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="C44" s="1"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="C45" s="1"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="C46" s="1"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="C47" s="1"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="C48" s="1"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="1"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="1"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="1"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="1"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="1"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="1"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="3:3">
-      <c r="C55" s="1"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="1"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" spans="3:3">
-      <c r="C57" s="1"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" spans="3:3">
-      <c r="C58" s="1"/>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="1"/>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="1"/>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="1"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="1"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" s="1"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="3:3">
-      <c r="C64" s="1"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" s="1"/>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="1"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="1"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="1"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="1"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="1"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="1"/>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="1"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="1"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="1"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="1"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="1"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" s="1"/>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" spans="3:3">
-      <c r="C78" s="1"/>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="1"/>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="1"/>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="1"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="1"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="1"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="1"/>
+      <c r="C84" s="5"/>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="1"/>
+      <c r="C85" s="5"/>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="1"/>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="1"/>
+      <c r="C87" s="5"/>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="1"/>
+      <c r="C88" s="5"/>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="1"/>
+      <c r="C89" s="5"/>
     </row>
     <row r="90" spans="3:3">
-      <c r="C90" s="1"/>
+      <c r="C90" s="5"/>
     </row>
     <row r="91" spans="3:3">
-      <c r="C91" s="1"/>
+      <c r="C91" s="5"/>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="1"/>
+      <c r="C92" s="5"/>
     </row>
     <row r="93" spans="3:3">
-      <c r="C93" s="1"/>
+      <c r="C93" s="5"/>
     </row>
     <row r="94" spans="3:3">
-      <c r="C94" s="1"/>
+      <c r="C94" s="5"/>
     </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="1"/>
+      <c r="C95" s="5"/>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="1"/>
+      <c r="C96" s="5"/>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="1"/>
+      <c r="C97" s="5"/>
     </row>
     <row r="98" spans="3:3">
-      <c r="C98" s="1"/>
+      <c r="C98" s="5"/>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="1"/>
+      <c r="C99" s="5"/>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="1"/>
+      <c r="C100" s="5"/>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="1"/>
+      <c r="C101" s="5"/>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="1"/>
+      <c r="C102" s="5"/>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="1"/>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="1"/>
+      <c r="C104" s="5"/>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="1"/>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="1"/>
+      <c r="C106" s="5"/>
     </row>
     <row r="107" spans="3:3">
-      <c r="C107" s="1"/>
+      <c r="C107" s="5"/>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" s="1"/>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="1"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="1"/>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="1"/>
+      <c r="C111" s="5"/>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="1"/>
+      <c r="C112" s="5"/>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" s="1"/>
+      <c r="C113" s="5"/>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="1"/>
+      <c r="C114" s="5"/>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="1"/>
+      <c r="C115" s="5"/>
     </row>
     <row r="116" spans="3:3">
-      <c r="C116" s="1"/>
+      <c r="C116" s="5"/>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="1"/>
+      <c r="C117" s="5"/>
     </row>
     <row r="118" spans="3:3">
-      <c r="C118" s="1"/>
+      <c r="C118" s="5"/>
     </row>
     <row r="119" spans="3:3">
-      <c r="C119" s="1"/>
+      <c r="C119" s="5"/>
     </row>
     <row r="120" spans="3:3">
-      <c r="C120" s="1"/>
+      <c r="C120" s="5"/>
     </row>
     <row r="121" spans="3:3">
-      <c r="C121" s="1"/>
+      <c r="C121" s="5"/>
     </row>
     <row r="122" spans="3:3">
-      <c r="C122" s="1"/>
+      <c r="C122" s="5"/>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" s="1"/>
+      <c r="C123" s="5"/>
     </row>
     <row r="124" spans="3:3">
-      <c r="C124" s="1"/>
+      <c r="C124" s="5"/>
     </row>
     <row r="125" spans="3:3">
-      <c r="C125" s="1"/>
+      <c r="C125" s="5"/>
     </row>
     <row r="126" spans="3:3">
-      <c r="C126" s="1"/>
+      <c r="C126" s="5"/>
     </row>
     <row r="127" spans="3:3">
-      <c r="C127" s="1"/>
+      <c r="C127" s="5"/>
     </row>
     <row r="128" spans="3:3">
-      <c r="C128" s="1"/>
+      <c r="C128" s="5"/>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="1"/>
+      <c r="C129" s="5"/>
     </row>
     <row r="130" spans="3:3">
-      <c r="C130" s="1"/>
+      <c r="C130" s="5"/>
     </row>
     <row r="131" spans="3:3">
-      <c r="C131" s="1"/>
+      <c r="C131" s="5"/>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="1"/>
+      <c r="C132" s="5"/>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="1"/>
+      <c r="C133" s="5"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="1"/>
+      <c r="C134" s="5"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="1"/>
+      <c r="C135" s="5"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="1"/>
+      <c r="C136" s="5"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="1"/>
+      <c r="C137" s="5"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="1"/>
+      <c r="C138" s="5"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="1"/>
+      <c r="C139" s="5"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="1"/>
+      <c r="C140" s="5"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="1"/>
+      <c r="C141" s="5"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="1"/>
+      <c r="C142" s="5"/>
     </row>
     <row r="143" spans="3:3">
-      <c r="C143" s="1"/>
+      <c r="C143" s="5"/>
     </row>
     <row r="144" spans="3:3">
-      <c r="C144" s="1"/>
+      <c r="C144" s="5"/>
     </row>
     <row r="145" spans="3:3">
-      <c r="C145" s="1"/>
+      <c r="C145" s="5"/>
     </row>
     <row r="146" spans="3:3">
-      <c r="C146" s="1"/>
+      <c r="C146" s="5"/>
     </row>
     <row r="147" spans="3:3">
-      <c r="C147" s="1"/>
+      <c r="C147" s="5"/>
     </row>
     <row r="148" spans="3:3">
-      <c r="C148" s="1"/>
+      <c r="C148" s="5"/>
     </row>
     <row r="149" spans="3:3">
-      <c r="C149" s="1"/>
+      <c r="C149" s="5"/>
     </row>
     <row r="150" spans="3:3">
-      <c r="C150" s="1"/>
+      <c r="C150" s="5"/>
     </row>
     <row r="151" spans="3:3">
-      <c r="C151" s="1"/>
+      <c r="C151" s="5"/>
     </row>
     <row r="152" spans="3:3">
-      <c r="C152" s="1"/>
+      <c r="C152" s="5"/>
     </row>
     <row r="153" spans="3:3">
-      <c r="C153" s="1"/>
+      <c r="C153" s="5"/>
     </row>
     <row r="154" spans="3:3">
-      <c r="C154" s="1"/>
+      <c r="C154" s="5"/>
     </row>
     <row r="155" spans="3:3">
-      <c r="C155" s="1"/>
+      <c r="C155" s="5"/>
     </row>
     <row r="156" spans="3:3">
-      <c r="C156" s="1"/>
+      <c r="C156" s="5"/>
     </row>
     <row r="157" spans="3:3">
-      <c r="C157" s="1"/>
+      <c r="C157" s="5"/>
     </row>
     <row r="158" spans="3:3">
-      <c r="C158" s="1"/>
+      <c r="C158" s="5"/>
     </row>
     <row r="159" spans="3:3">
-      <c r="C159" s="1"/>
+      <c r="C159" s="5"/>
     </row>
     <row r="160" spans="3:3">
-      <c r="C160" s="1"/>
+      <c r="C160" s="5"/>
     </row>
     <row r="161" spans="3:3">
-      <c r="C161" s="1"/>
+      <c r="C161" s="5"/>
     </row>
     <row r="162" spans="3:3">
-      <c r="C162" s="1"/>
+      <c r="C162" s="5"/>
     </row>
     <row r="163" spans="3:3">
-      <c r="C163" s="1"/>
+      <c r="C163" s="5"/>
     </row>
     <row r="164" spans="3:3">
-      <c r="C164" s="1"/>
+      <c r="C164" s="5"/>
     </row>
     <row r="165" spans="3:3">
-      <c r="C165" s="1"/>
+      <c r="C165" s="5"/>
     </row>
     <row r="166" spans="3:3">
-      <c r="C166" s="1"/>
+      <c r="C166" s="5"/>
     </row>
     <row r="167" spans="3:3">
-      <c r="C167" s="1"/>
+      <c r="C167" s="5"/>
     </row>
     <row r="168" spans="3:3">
-      <c r="C168" s="1"/>
+      <c r="C168" s="5"/>
     </row>
     <row r="169" spans="3:3">
-      <c r="C169" s="1"/>
+      <c r="C169" s="5"/>
     </row>
     <row r="170" spans="3:3">
-      <c r="C170" s="1"/>
+      <c r="C170" s="5"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="1"/>
+      <c r="C171" s="5"/>
     </row>
     <row r="172" spans="3:3">
-      <c r="C172" s="1"/>
+      <c r="C172" s="5"/>
     </row>
     <row r="173" spans="3:3">
-      <c r="C173" s="1"/>
+      <c r="C173" s="5"/>
     </row>
     <row r="174" spans="3:3">
-      <c r="C174" s="1"/>
+      <c r="C174" s="5"/>
     </row>
     <row r="175" spans="3:3">
-      <c r="C175" s="1"/>
+      <c r="C175" s="5"/>
     </row>
     <row r="176" spans="3:3">
-      <c r="C176" s="1"/>
+      <c r="C176" s="5"/>
     </row>
     <row r="177" spans="3:3">
-      <c r="C177" s="1"/>
+      <c r="C177" s="5"/>
     </row>
     <row r="178" spans="3:3">
-      <c r="C178" s="1"/>
+      <c r="C178" s="5"/>
     </row>
     <row r="179" spans="3:3">
-      <c r="C179" s="1"/>
+      <c r="C179" s="5"/>
     </row>
     <row r="180" spans="3:3">
-      <c r="C180" s="1"/>
+      <c r="C180" s="5"/>
     </row>
     <row r="181" spans="3:3">
-      <c r="C181" s="1"/>
+      <c r="C181" s="5"/>
     </row>
     <row r="182" spans="3:3">
-      <c r="C182" s="1"/>
+      <c r="C182" s="5"/>
     </row>
     <row r="183" spans="3:3">
-      <c r="C183" s="1"/>
+      <c r="C183" s="5"/>
     </row>
     <row r="184" spans="3:3">
-      <c r="C184" s="1"/>
+      <c r="C184" s="5"/>
     </row>
     <row r="185" spans="3:3">
-      <c r="C185" s="1"/>
+      <c r="C185" s="5"/>
     </row>
     <row r="186" spans="3:3">
-      <c r="C186" s="1"/>
+      <c r="C186" s="5"/>
     </row>
     <row r="187" spans="3:3">
-      <c r="C187" s="1"/>
+      <c r="C187" s="5"/>
     </row>
     <row r="188" spans="3:3">
-      <c r="C188" s="1"/>
+      <c r="C188" s="5"/>
     </row>
     <row r="189" spans="3:3">
-      <c r="C189" s="1"/>
+      <c r="C189" s="5"/>
     </row>
     <row r="190" spans="3:3">
-      <c r="C190" s="1"/>
+      <c r="C190" s="5"/>
     </row>
     <row r="191" spans="3:3">
-      <c r="C191" s="1"/>
+      <c r="C191" s="5"/>
     </row>
     <row r="192" spans="3:3">
-      <c r="C192" s="1"/>
+      <c r="C192" s="5"/>
     </row>
     <row r="193" spans="3:3">
-      <c r="C193" s="1"/>
+      <c r="C193" s="5"/>
     </row>
     <row r="194" spans="3:3">
-      <c r="C194" s="1"/>
+      <c r="C194" s="5"/>
     </row>
     <row r="195" spans="3:3">
-      <c r="C195" s="1"/>
+      <c r="C195" s="5"/>
     </row>
     <row r="196" spans="3:3">
-      <c r="C196" s="1"/>
+      <c r="C196" s="5"/>
     </row>
     <row r="197" spans="3:3">
-      <c r="C197" s="1"/>
+      <c r="C197" s="5"/>
     </row>
     <row r="198" spans="3:3">
-      <c r="C198" s="1"/>
+      <c r="C198" s="5"/>
     </row>
     <row r="199" spans="3:3">
-      <c r="C199" s="1"/>
+      <c r="C199" s="5"/>
     </row>
     <row r="200" spans="3:3">
-      <c r="C200" s="1"/>
+      <c r="C200" s="5"/>
     </row>
     <row r="201" spans="3:3">
-      <c r="C201" s="1"/>
+      <c r="C201" s="5"/>
     </row>
     <row r="202" spans="3:3">
-      <c r="C202" s="1"/>
+      <c r="C202" s="5"/>
     </row>
     <row r="203" spans="3:3">
-      <c r="C203" s="1"/>
+      <c r="C203" s="5"/>
     </row>
     <row r="204" spans="3:3">
-      <c r="C204" s="1"/>
+      <c r="C204" s="5"/>
     </row>
     <row r="205" spans="3:3">
-      <c r="C205" s="1"/>
+      <c r="C205" s="5"/>
     </row>
     <row r="206" spans="3:3">
-      <c r="C206" s="1"/>
+      <c r="C206" s="5"/>
     </row>
     <row r="207" spans="3:3">
-      <c r="C207" s="1"/>
+      <c r="C207" s="5"/>
     </row>
     <row r="208" spans="3:3">
-      <c r="C208" s="1"/>
+      <c r="C208" s="5"/>
     </row>
     <row r="209" spans="3:3">
-      <c r="C209" s="1"/>
+      <c r="C209" s="5"/>
     </row>
     <row r="210" spans="3:3">
-      <c r="C210" s="1"/>
+      <c r="C210" s="5"/>
     </row>
     <row r="211" spans="3:3">
-      <c r="C211" s="1"/>
+      <c r="C211" s="5"/>
     </row>
     <row r="212" spans="3:3">
-      <c r="C212" s="1"/>
+      <c r="C212" s="5"/>
     </row>
     <row r="213" spans="3:3">
-      <c r="C213" s="1"/>
+      <c r="C213" s="5"/>
     </row>
     <row r="214" spans="3:3">
-      <c r="C214" s="1"/>
+      <c r="C214" s="5"/>
     </row>
     <row r="215" spans="3:3">
-      <c r="C215" s="1"/>
+      <c r="C215" s="5"/>
     </row>
     <row r="216" spans="3:3">
-      <c r="C216" s="1"/>
+      <c r="C216" s="5"/>
     </row>
     <row r="217" spans="3:3">
-      <c r="C217" s="1"/>
+      <c r="C217" s="5"/>
     </row>
     <row r="218" spans="3:3">
-      <c r="C218" s="1"/>
+      <c r="C218" s="5"/>
     </row>
     <row r="219" spans="3:3">
-      <c r="C219" s="1"/>
+      <c r="C219" s="5"/>
     </row>
     <row r="220" spans="3:3">
-      <c r="C220" s="1"/>
+      <c r="C220" s="5"/>
     </row>
     <row r="221" spans="3:3">
-      <c r="C221" s="1"/>
+      <c r="C221" s="5"/>
     </row>
     <row r="222" spans="3:3">
-      <c r="C222" s="1"/>
+      <c r="C222" s="5"/>
     </row>
     <row r="223" spans="3:3">
-      <c r="C223" s="1"/>
+      <c r="C223" s="5"/>
     </row>
     <row r="224" spans="3:3">
-      <c r="C224" s="1"/>
+      <c r="C224" s="5"/>
     </row>
     <row r="225" spans="3:3">
-      <c r="C225" s="1"/>
+      <c r="C225" s="5"/>
     </row>
     <row r="226" spans="3:3">
-      <c r="C226" s="1"/>
+      <c r="C226" s="5"/>
     </row>
     <row r="227" spans="3:3">
-      <c r="C227" s="1"/>
+      <c r="C227" s="5"/>
     </row>
     <row r="228" spans="3:3">
-      <c r="C228" s="1"/>
+      <c r="C228" s="5"/>
     </row>
     <row r="229" spans="3:3">
-      <c r="C229" s="1"/>
+      <c r="C229" s="5"/>
     </row>
     <row r="230" spans="3:3">
-      <c r="C230" s="1"/>
+      <c r="C230" s="5"/>
     </row>
     <row r="231" spans="3:3">
-      <c r="C231" s="1"/>
+      <c r="C231" s="5"/>
     </row>
     <row r="232" spans="3:3">
-      <c r="C232" s="1"/>
+      <c r="C232" s="5"/>
     </row>
     <row r="233" spans="3:3">
-      <c r="C233" s="1"/>
+      <c r="C233" s="5"/>
     </row>
     <row r="234" spans="3:3">
-      <c r="C234" s="1"/>
+      <c r="C234" s="5"/>
     </row>
     <row r="235" spans="3:3">
-      <c r="C235" s="1"/>
+      <c r="C235" s="5"/>
     </row>
     <row r="236" spans="3:3">
-      <c r="C236" s="1"/>
+      <c r="C236" s="5"/>
     </row>
     <row r="237" spans="3:3">
-      <c r="C237" s="1"/>
+      <c r="C237" s="5"/>
     </row>
     <row r="238" spans="3:3">
-      <c r="C238" s="1"/>
+      <c r="C238" s="5"/>
     </row>
     <row r="239" spans="3:3">
-      <c r="C239" s="1"/>
+      <c r="C239" s="5"/>
     </row>
     <row r="240" spans="3:3">
-      <c r="C240" s="1"/>
+      <c r="C240" s="5"/>
     </row>
     <row r="241" spans="3:3">
-      <c r="C241" s="1"/>
+      <c r="C241" s="5"/>
     </row>
     <row r="242" spans="3:3">
-      <c r="C242" s="1"/>
+      <c r="C242" s="5"/>
     </row>
     <row r="243" spans="3:3">
-      <c r="C243" s="1"/>
+      <c r="C243" s="5"/>
     </row>
     <row r="244" spans="3:3">
-      <c r="C244" s="1"/>
+      <c r="C244" s="5"/>
     </row>
     <row r="245" spans="3:3">
-      <c r="C245" s="1"/>
+      <c r="C245" s="5"/>
     </row>
     <row r="246" spans="3:3">
-      <c r="C246" s="1"/>
+      <c r="C246" s="5"/>
     </row>
     <row r="247" spans="3:3">
-      <c r="C247" s="1"/>
+      <c r="C247" s="5"/>
     </row>
     <row r="248" spans="3:3">
-      <c r="C248" s="1"/>
+      <c r="C248" s="5"/>
     </row>
     <row r="249" spans="3:3">
-      <c r="C249" s="1"/>
+      <c r="C249" s="5"/>
     </row>
     <row r="250" spans="3:3">
-      <c r="C250" s="1"/>
+      <c r="C250" s="5"/>
     </row>
     <row r="251" spans="3:3">
-      <c r="C251" s="1"/>
+      <c r="C251" s="5"/>
     </row>
     <row r="252" spans="3:3">
-      <c r="C252" s="1"/>
+      <c r="C252" s="5"/>
     </row>
     <row r="253" spans="3:3">
-      <c r="C253" s="1"/>
+      <c r="C253" s="5"/>
     </row>
     <row r="254" spans="3:3">
-      <c r="C254" s="1"/>
+      <c r="C254" s="5"/>
     </row>
     <row r="255" spans="3:3">
-      <c r="C255" s="1"/>
+      <c r="C255" s="5"/>
     </row>
     <row r="256" spans="3:3">
-      <c r="C256" s="1"/>
+      <c r="C256" s="5"/>
     </row>
     <row r="257" spans="3:3">
-      <c r="C257" s="1"/>
+      <c r="C257" s="5"/>
     </row>
     <row r="258" spans="3:3">
-      <c r="C258" s="1"/>
+      <c r="C258" s="5"/>
     </row>
     <row r="259" spans="3:3">
-      <c r="C259" s="1"/>
+      <c r="C259" s="5"/>
     </row>
     <row r="260" spans="3:3">
-      <c r="C260" s="1"/>
+      <c r="C260" s="5"/>
     </row>
     <row r="261" spans="3:3">
-      <c r="C261" s="1"/>
+      <c r="C261" s="5"/>
     </row>
     <row r="262" spans="3:3">
-      <c r="C262" s="1"/>
+      <c r="C262" s="5"/>
     </row>
     <row r="263" spans="3:3">
-      <c r="C263" s="1"/>
+      <c r="C263" s="5"/>
     </row>
     <row r="264" spans="3:3">
-      <c r="C264" s="1"/>
+      <c r="C264" s="5"/>
     </row>
     <row r="265" spans="3:3">
-      <c r="C265" s="1"/>
+      <c r="C265" s="5"/>
     </row>
     <row r="266" spans="3:3">
-      <c r="C266" s="1"/>
+      <c r="C266" s="5"/>
     </row>
     <row r="267" spans="3:3">
-      <c r="C267" s="1"/>
+      <c r="C267" s="5"/>
     </row>
     <row r="268" spans="3:3">
-      <c r="C268" s="1"/>
+      <c r="C268" s="5"/>
     </row>
     <row r="269" spans="3:3">
-      <c r="C269" s="1"/>
+      <c r="C269" s="5"/>
     </row>
     <row r="270" spans="3:3">
-      <c r="C270" s="1"/>
+      <c r="C270" s="5"/>
     </row>
     <row r="271" spans="3:3">
-      <c r="C271" s="1"/>
+      <c r="C271" s="5"/>
     </row>
     <row r="272" spans="3:3">
-      <c r="C272" s="1"/>
+      <c r="C272" s="5"/>
     </row>
     <row r="273" spans="3:3">
-      <c r="C273" s="1"/>
+      <c r="C273" s="5"/>
     </row>
     <row r="274" spans="3:3">
-      <c r="C274" s="1"/>
+      <c r="C274" s="5"/>
     </row>
     <row r="275" spans="3:3">
-      <c r="C275" s="1"/>
+      <c r="C275" s="5"/>
     </row>
     <row r="276" spans="3:3">
-      <c r="C276" s="1"/>
+      <c r="C276" s="5"/>
     </row>
     <row r="277" spans="3:3">
-      <c r="C277" s="1"/>
+      <c r="C277" s="5"/>
     </row>
     <row r="278" spans="3:3">
-      <c r="C278" s="1"/>
+      <c r="C278" s="5"/>
     </row>
     <row r="279" spans="3:3">
-      <c r="C279" s="1"/>
+      <c r="C279" s="5"/>
     </row>
     <row r="280" spans="3:3">
-      <c r="C280" s="1"/>
+      <c r="C280" s="5"/>
     </row>
     <row r="281" spans="3:3">
-      <c r="C281" s="1"/>
+      <c r="C281" s="5"/>
     </row>
     <row r="282" spans="3:3">
-      <c r="C282" s="1"/>
+      <c r="C282" s="5"/>
     </row>
     <row r="283" spans="3:3">
-      <c r="C283" s="1"/>
+      <c r="C283" s="5"/>
     </row>
     <row r="284" spans="3:3">
-      <c r="C284" s="1"/>
+      <c r="C284" s="5"/>
     </row>
     <row r="285" spans="3:3">
-      <c r="C285" s="1"/>
+      <c r="C285" s="5"/>
     </row>
     <row r="286" spans="3:3">
-      <c r="C286" s="1"/>
+      <c r="C286" s="5"/>
     </row>
     <row r="287" spans="3:3">
-      <c r="C287" s="1"/>
+      <c r="C287" s="5"/>
     </row>
     <row r="288" spans="3:3">
-      <c r="C288" s="1"/>
+      <c r="C288" s="5"/>
     </row>
     <row r="289" spans="3:3">
-      <c r="C289" s="1"/>
+      <c r="C289" s="5"/>
     </row>
     <row r="290" spans="3:3">
-      <c r="C290" s="1"/>
+      <c r="C290" s="5"/>
     </row>
     <row r="291" spans="3:3">
-      <c r="C291" s="1"/>
+      <c r="C291" s="5"/>
     </row>
     <row r="292" spans="3:3">
-      <c r="C292" s="1"/>
+      <c r="C292" s="5"/>
     </row>
     <row r="293" spans="3:3">
-      <c r="C293" s="1"/>
+      <c r="C293" s="5"/>
     </row>
     <row r="294" spans="3:3">
-      <c r="C294" s="1"/>
+      <c r="C294" s="5"/>
     </row>
     <row r="295" spans="3:3">
-      <c r="C295" s="1"/>
+      <c r="C295" s="5"/>
     </row>
     <row r="296" spans="3:3">
-      <c r="C296" s="1"/>
+      <c r="C296" s="5"/>
     </row>
     <row r="297" spans="3:3">
-      <c r="C297" s="1"/>
+      <c r="C297" s="5"/>
     </row>
     <row r="298" spans="3:3">
-      <c r="C298" s="1"/>
+      <c r="C298" s="5"/>
     </row>
     <row r="299" spans="3:3">
-      <c r="C299" s="1"/>
+      <c r="C299" s="5"/>
     </row>
     <row r="300" spans="3:3">
-      <c r="C300" s="1"/>
+      <c r="C300" s="5"/>
     </row>
     <row r="301" spans="3:3">
-      <c r="C301" s="1"/>
+      <c r="C301" s="5"/>
     </row>
     <row r="302" spans="3:3">
-      <c r="C302" s="1"/>
+      <c r="C302" s="5"/>
     </row>
     <row r="303" spans="3:3">
-      <c r="C303" s="1"/>
+      <c r="C303" s="5"/>
     </row>
     <row r="304" spans="3:3">
-      <c r="C304" s="1"/>
+      <c r="C304" s="5"/>
     </row>
     <row r="305" spans="3:3">
-      <c r="C305" s="1"/>
+      <c r="C305" s="5"/>
     </row>
     <row r="306" spans="3:3">
-      <c r="C306" s="1"/>
+      <c r="C306" s="5"/>
     </row>
     <row r="307" spans="3:3">
-      <c r="C307" s="1"/>
+      <c r="C307" s="5"/>
     </row>
     <row r="308" spans="3:3">
-      <c r="C308" s="1"/>
+      <c r="C308" s="5"/>
     </row>
     <row r="309" spans="3:3">
-      <c r="C309" s="1"/>
+      <c r="C309" s="5"/>
     </row>
     <row r="310" spans="3:3">
-      <c r="C310" s="1"/>
+      <c r="C310" s="5"/>
     </row>
     <row r="311" spans="3:3">
-      <c r="C311" s="1"/>
+      <c r="C311" s="5"/>
     </row>
     <row r="312" spans="3:3">
-      <c r="C312" s="1"/>
+      <c r="C312" s="5"/>
     </row>
     <row r="313" spans="3:3">
-      <c r="C313" s="1"/>
+      <c r="C313" s="5"/>
     </row>
     <row r="314" spans="3:3">
-      <c r="C314" s="1"/>
+      <c r="C314" s="5"/>
     </row>
     <row r="315" spans="3:3">
-      <c r="C315" s="1"/>
+      <c r="C315" s="5"/>
     </row>
     <row r="316" spans="3:3">
-      <c r="C316" s="1"/>
+      <c r="C316" s="5"/>
     </row>
     <row r="317" spans="3:3">
-      <c r="C317" s="1"/>
+      <c r="C317" s="5"/>
     </row>
     <row r="318" spans="3:3">
-      <c r="C318" s="1"/>
+      <c r="C318" s="5"/>
     </row>
     <row r="319" spans="3:3">
-      <c r="C319" s="1"/>
+      <c r="C319" s="5"/>
     </row>
     <row r="320" spans="3:3">
-      <c r="C320" s="1"/>
+      <c r="C320" s="5"/>
     </row>
     <row r="321" spans="3:3">
-      <c r="C321" s="1"/>
+      <c r="C321" s="5"/>
     </row>
     <row r="322" spans="3:3">
-      <c r="C322" s="1"/>
+      <c r="C322" s="5"/>
     </row>
     <row r="323" spans="3:3">
-      <c r="C323" s="1"/>
+      <c r="C323" s="5"/>
     </row>
     <row r="324" spans="3:3">
-      <c r="C324" s="1"/>
+      <c r="C324" s="5"/>
     </row>
     <row r="325" spans="3:3">
-      <c r="C325" s="1"/>
+      <c r="C325" s="5"/>
     </row>
     <row r="326" spans="3:3">
-      <c r="C326" s="1"/>
+      <c r="C326" s="5"/>
     </row>
     <row r="327" spans="3:3">
-      <c r="C327" s="1"/>
+      <c r="C327" s="5"/>
     </row>
     <row r="328" spans="3:3">
-      <c r="C328" s="1"/>
+      <c r="C328" s="5"/>
     </row>
     <row r="329" spans="3:3">
-      <c r="C329" s="1"/>
+      <c r="C329" s="5"/>
     </row>
     <row r="330" spans="3:3">
-      <c r="C330" s="1"/>
+      <c r="C330" s="5"/>
     </row>
     <row r="331" spans="3:3">
-      <c r="C331" s="1"/>
+      <c r="C331" s="5"/>
     </row>
     <row r="332" spans="3:3">
-      <c r="C332" s="1"/>
+      <c r="C332" s="5"/>
     </row>
     <row r="333" spans="3:3">
-      <c r="C333" s="1"/>
+      <c r="C333" s="5"/>
     </row>
     <row r="334" spans="3:3">
-      <c r="C334" s="1"/>
+      <c r="C334" s="5"/>
     </row>
     <row r="335" spans="3:3">
-      <c r="C335" s="1"/>
+      <c r="C335" s="5"/>
     </row>
     <row r="336" spans="3:3">
-      <c r="C336" s="1"/>
+      <c r="C336" s="5"/>
     </row>
     <row r="337" spans="3:3">
-      <c r="C337" s="1"/>
+      <c r="C337" s="5"/>
     </row>
     <row r="338" spans="3:3">
-      <c r="C338" s="1"/>
+      <c r="C338" s="5"/>
     </row>
     <row r="339" spans="3:3">
-      <c r="C339" s="1"/>
+      <c r="C339" s="5"/>
     </row>
     <row r="340" spans="3:3">
-      <c r="C340" s="1"/>
+      <c r="C340" s="5"/>
     </row>
     <row r="341" spans="3:3">
-      <c r="C341" s="1"/>
+      <c r="C341" s="5"/>
     </row>
     <row r="342" spans="3:3">
-      <c r="C342" s="1"/>
+      <c r="C342" s="5"/>
     </row>
     <row r="343" spans="3:3">
-      <c r="C343" s="1"/>
+      <c r="C343" s="5"/>
     </row>
     <row r="344" spans="3:3">
-      <c r="C344" s="1"/>
+      <c r="C344" s="5"/>
     </row>
     <row r="345" spans="3:3">
-      <c r="C345" s="1"/>
+      <c r="C345" s="5"/>
     </row>
     <row r="346" spans="3:3">
-      <c r="C346" s="1"/>
+      <c r="C346" s="5"/>
     </row>
     <row r="347" spans="3:3">
-      <c r="C347" s="1"/>
+      <c r="C347" s="5"/>
     </row>
     <row r="348" spans="3:3">
-      <c r="C348" s="1"/>
+      <c r="C348" s="5"/>
     </row>
     <row r="349" spans="3:3">
-      <c r="C349" s="1"/>
+      <c r="C349" s="5"/>
     </row>
     <row r="350" spans="3:3">
-      <c r="C350" s="1"/>
+      <c r="C350" s="5"/>
     </row>
     <row r="351" spans="3:3">
-      <c r="C351" s="1"/>
+      <c r="C351" s="5"/>
     </row>
     <row r="352" spans="3:3">
-      <c r="C352" s="1"/>
+      <c r="C352" s="5"/>
     </row>
     <row r="353" spans="3:3">
-      <c r="C353" s="1"/>
+      <c r="C353" s="5"/>
     </row>
     <row r="354" spans="3:3">
-      <c r="C354" s="1"/>
+      <c r="C354" s="5"/>
     </row>
     <row r="355" spans="3:3">
-      <c r="C355" s="1"/>
+      <c r="C355" s="5"/>
     </row>
     <row r="356" spans="3:3">
-      <c r="C356" s="1"/>
+      <c r="C356" s="5"/>
     </row>
     <row r="357" spans="3:3">
-      <c r="C357" s="1"/>
+      <c r="C357" s="5"/>
     </row>
     <row r="358" spans="3:3">
-      <c r="C358" s="1"/>
+      <c r="C358" s="5"/>
     </row>
     <row r="359" spans="3:3">
-      <c r="C359" s="1"/>
+      <c r="C359" s="5"/>
     </row>
     <row r="360" spans="3:3">
-      <c r="C360" s="1"/>
+      <c r="C360" s="5"/>
     </row>
     <row r="361" spans="3:3">
-      <c r="C361" s="1"/>
+      <c r="C361" s="5"/>
     </row>
     <row r="362" spans="3:3">
-      <c r="C362" s="1"/>
+      <c r="C362" s="5"/>
     </row>
     <row r="363" spans="3:3">
-      <c r="C363" s="1"/>
+      <c r="C363" s="5"/>
     </row>
     <row r="364" spans="3:3">
-      <c r="C364" s="1"/>
+      <c r="C364" s="5"/>
     </row>
     <row r="365" spans="3:3">
-      <c r="C365" s="1"/>
+      <c r="C365" s="5"/>
     </row>
     <row r="366" spans="3:3">
-      <c r="C366" s="1"/>
+      <c r="C366" s="5"/>
     </row>
     <row r="367" spans="3:3">
-      <c r="C367" s="1"/>
+      <c r="C367" s="5"/>
     </row>
     <row r="368" spans="3:3">
-      <c r="C368" s="1"/>
+      <c r="C368" s="5"/>
     </row>
     <row r="369" spans="3:3">
-      <c r="C369" s="1"/>
+      <c r="C369" s="5"/>
     </row>
     <row r="370" spans="3:3">
-      <c r="C370" s="1"/>
+      <c r="C370" s="5"/>
     </row>
     <row r="371" spans="3:3">
-      <c r="C371" s="1"/>
+      <c r="C371" s="5"/>
     </row>
     <row r="372" spans="3:3">
-      <c r="C372" s="1"/>
+      <c r="C372" s="5"/>
     </row>
     <row r="373" spans="3:3">
-      <c r="C373" s="1"/>
+      <c r="C373" s="5"/>
     </row>
     <row r="374" spans="3:3">
-      <c r="C374" s="1"/>
+      <c r="C374" s="5"/>
     </row>
     <row r="375" spans="3:3">
-      <c r="C375" s="1"/>
+      <c r="C375" s="5"/>
     </row>
     <row r="376" spans="3:3">
-      <c r="C376" s="1"/>
+      <c r="C376" s="5"/>
     </row>
     <row r="377" spans="3:3">
-      <c r="C377" s="1"/>
+      <c r="C377" s="5"/>
     </row>
     <row r="378" spans="3:3">
-      <c r="C378" s="1"/>
+      <c r="C378" s="5"/>
     </row>
     <row r="379" spans="3:3">
-      <c r="C379" s="1"/>
+      <c r="C379" s="5"/>
     </row>
     <row r="380" spans="3:3">
-      <c r="C380" s="1"/>
+      <c r="C380" s="5"/>
     </row>
     <row r="381" spans="3:3">
-      <c r="C381" s="1"/>
+      <c r="C381" s="5"/>
     </row>
     <row r="382" spans="3:3">
-      <c r="C382" s="1"/>
+      <c r="C382" s="5"/>
     </row>
     <row r="383" spans="3:3">
-      <c r="C383" s="1"/>
+      <c r="C383" s="5"/>
     </row>
     <row r="384" spans="3:3">
-      <c r="C384" s="1"/>
+      <c r="C384" s="5"/>
     </row>
     <row r="385" spans="3:3">
-      <c r="C385" s="1"/>
+      <c r="C385" s="5"/>
     </row>
     <row r="386" spans="3:3">
-      <c r="C386" s="1"/>
+      <c r="C386" s="5"/>
     </row>
     <row r="387" spans="3:3">
-      <c r="C387" s="1"/>
+      <c r="C387" s="5"/>
     </row>
     <row r="388" spans="3:3">
-      <c r="C388" s="1"/>
+      <c r="C388" s="5"/>
     </row>
     <row r="389" spans="3:3">
-      <c r="C389" s="1"/>
+      <c r="C389" s="5"/>
     </row>
     <row r="390" spans="3:3">
-      <c r="C390" s="1"/>
+      <c r="C390" s="5"/>
     </row>
     <row r="391" spans="3:3">
-      <c r="C391" s="1"/>
+      <c r="C391" s="5"/>
     </row>
     <row r="392" spans="3:3">
-      <c r="C392" s="1"/>
+      <c r="C392" s="5"/>
     </row>
     <row r="393" spans="3:3">
-      <c r="C393" s="1"/>
+      <c r="C393" s="5"/>
     </row>
     <row r="394" spans="3:3">
-      <c r="C394" s="1"/>
+      <c r="C394" s="5"/>
     </row>
     <row r="395" spans="3:3">
-      <c r="C395" s="1"/>
+      <c r="C395" s="5"/>
     </row>
     <row r="396" spans="3:3">
-      <c r="C396" s="1"/>
+      <c r="C396" s="5"/>
     </row>
     <row r="397" spans="3:3">
-      <c r="C397" s="1"/>
+      <c r="C397" s="5"/>
     </row>
     <row r="398" spans="3:3">
-      <c r="C398" s="1"/>
+      <c r="C398" s="5"/>
     </row>
     <row r="399" spans="3:3">
-      <c r="C399" s="1"/>
+      <c r="C399" s="5"/>
     </row>
     <row r="400" spans="3:3">
-      <c r="C400" s="1"/>
+      <c r="C400" s="5"/>
     </row>
     <row r="401" spans="3:3">
-      <c r="C401" s="1"/>
+      <c r="C401" s="5"/>
     </row>
     <row r="402" spans="3:3">
-      <c r="C402" s="1"/>
+      <c r="C402" s="5"/>
     </row>
     <row r="403" spans="3:3">
-      <c r="C403" s="1"/>
+      <c r="C403" s="5"/>
     </row>
     <row r="404" spans="3:3">
-      <c r="C404" s="1"/>
+      <c r="C404" s="5"/>
     </row>
     <row r="405" spans="3:3">
-      <c r="C405" s="1"/>
+      <c r="C405" s="5"/>
     </row>
     <row r="406" spans="3:3">
-      <c r="C406" s="1"/>
+      <c r="C406" s="5"/>
     </row>
     <row r="407" spans="3:3">
-      <c r="C407" s="1"/>
+      <c r="C407" s="5"/>
     </row>
     <row r="408" spans="3:3">
-      <c r="C408" s="1"/>
+      <c r="C408" s="5"/>
     </row>
     <row r="409" spans="3:3">
-      <c r="C409" s="1"/>
+      <c r="C409" s="5"/>
     </row>
     <row r="410" spans="3:3">
-      <c r="C410" s="1"/>
+      <c r="C410" s="5"/>
     </row>
     <row r="411" spans="3:3">
-      <c r="C411" s="1"/>
+      <c r="C411" s="5"/>
     </row>
     <row r="412" spans="3:3">
-      <c r="C412" s="1"/>
+      <c r="C412" s="5"/>
     </row>
     <row r="413" spans="3:3">
-      <c r="C413" s="1"/>
+      <c r="C413" s="5"/>
     </row>
     <row r="414" spans="3:3">
-      <c r="C414" s="1"/>
+      <c r="C414" s="5"/>
+    </row>
+    <row r="415" spans="3:3">
+      <c r="C415" s="5"/>
+    </row>
+    <row r="416" spans="3:3">
+      <c r="C416" s="5"/>
+    </row>
+    <row r="417" spans="3:3">
+      <c r="C417" s="5"/>
+    </row>
+    <row r="418" spans="3:3">
+      <c r="C418" s="5"/>
+    </row>
+    <row r="419" spans="3:3">
+      <c r="C419" s="5"/>
+    </row>
+    <row r="420" spans="3:3">
+      <c r="C420" s="5"/>
+    </row>
+    <row r="421" spans="3:3">
+      <c r="C421" s="5"/>
+    </row>
+    <row r="422" spans="3:3">
+      <c r="C422" s="5"/>
+    </row>
+    <row r="423" spans="3:3">
+      <c r="C423" s="5"/>
+    </row>
+    <row r="424" spans="3:3">
+      <c r="C424" s="5"/>
+    </row>
+    <row r="425" spans="3:3">
+      <c r="C425" s="5"/>
+    </row>
+    <row r="426" spans="3:3">
+      <c r="C426" s="5"/>
+    </row>
+    <row r="427" spans="3:3">
+      <c r="C427" s="5"/>
+    </row>
+    <row r="428" spans="3:3">
+      <c r="C428" s="5"/>
+    </row>
+    <row r="429" spans="3:3">
+      <c r="C429" s="5"/>
+    </row>
+    <row r="430" spans="3:3">
+      <c r="C430" s="5"/>
+    </row>
+    <row r="431" spans="3:3">
+      <c r="C431" s="5"/>
+    </row>
+    <row r="432" spans="3:3">
+      <c r="C432" s="5"/>
+    </row>
+    <row r="433" spans="3:3">
+      <c r="C433" s="5"/>
+    </row>
+    <row r="434" spans="3:3">
+      <c r="C434" s="5"/>
+    </row>
+    <row r="435" spans="3:3">
+      <c r="C435" s="5"/>
+    </row>
+    <row r="436" spans="3:3">
+      <c r="C436" s="5"/>
+    </row>
+    <row r="437" spans="3:3">
+      <c r="C437" s="5"/>
+    </row>
+    <row r="438" spans="3:3">
+      <c r="C438" s="5"/>
+    </row>
+    <row r="439" spans="3:3">
+      <c r="C439" s="5"/>
+    </row>
+    <row r="440" spans="3:3">
+      <c r="C440" s="5"/>
+    </row>
+    <row r="441" spans="3:3">
+      <c r="C441" s="5"/>
+    </row>
+    <row r="442" spans="3:3">
+      <c r="C442" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C42 C376 C378 C380 C382 C384 C386 C388 C390 C392 C394 C396 C398 C400 C402 C404 C406 C408 C410 C412 C414 C44 C46 C48 C50 C52 C54 C56 C58 C60 C62 C64 C66 C68 C70 C72 C74 C76 C78 C80 C82 C84 C86 C88 C90 C92 C94 C96 C98 C100 C102 C104 C106 C108 C110 C112 C114 C116 C118 C120 C122 C124 C126 C128 C130 C132 C134 C136 C138 C140 C142 C144 C146 C148 C150 C152 C154 C156 C158 C160 C162 C164 C166 C168 C170 C172 C174 C176 C178 C180 C182 C184 C186 C188 C190 C192 C194 C196 C198 C200 C202 C204 C206 C208 C210 C212 C214 C216 C218 C220 C222 C224 C226 C228 C230 C232 C234 C236 C238 C240 C242 C244 C246 C248 C250 C252 C254 C256 C258 C260 C262 C264 C266 C268 C270 C272 C274 C276 C278 C280 C282 C284 C286 C288 C290 C292 C294 C296 C298 C300 C302 C304 C306 C308 C310 C312 C314 C316 C318 C320 C322 C324 C326 C328 C330 C332 C334 C336 C338 C340 C342 C344 C346 C348 C350 C352 C354 C356 C358 C360 C362 C364 C366 C368 C370 C372 C374">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C371 C373 C375 C377 C379 C381 C383 C385 C387 C389 C391 C393 C395 C397 C399 C401 C403 C405 C407 C409 C39 C41 C43 C45 C47 C49 C51 C53 C55 C57 C59 C61 C63 C65 C67 C69 C71 C73 C75 C77 C79 C81 C83 C85 C87 C89 C91 C93 C95 C97 C99 C101 C103 C105 C107 C109 C111 C113 C115 C117 C119 C121 C123 C125 C127 C129 C131 C133 C135 C137 C139 C141 C143 C145 C147 C149 C151 C153 C155 C157 C159 C161 C163 C165 C167 C169 C171 C173 C175 C177 C179 C181 C183 C185 C187 C189 C191 C193 C195 C197 C199 C201 C203 C205 C207 C209 C211 C213 C215 C217 C219 C221 C223 C225 C227 C229 C231 C233 C235 C237 C239 C241 C243 C245 C247 C249 C251 C253 C255 C257 C259 C261 C263 C265 C267 C269 C271 C273 C275 C277 C279 C281 C283 C285 C287 C289 C291 C293 C295 C297 C299 C301 C303 C305 C307 C309 C311 C313 C315 C317 C319 C321 C323 C325 C327 C329 C331 C333 C335 C337 C339 C341 C343 C345 C347 C349 C351 C353 C355 C357 C359 C361 C363 C365 C367 C369 C2:C37">
       <formula1>"index,scrip"</formula1>
     </dataValidation>
   </dataValidations>
